--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mandeep.kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3023E5F9-06A0-419C-87C8-9EB38C67AE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>lang_code</t>
   </si>
@@ -74,33 +75,6 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
-    <t>LUN</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>JEU</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -122,31 +96,34 @@
     <t>107</t>
   </si>
   <si>
-    <t>الشمس</t>
-  </si>
-  <si>
-    <t>الثلاثاء</t>
-  </si>
-  <si>
-    <t>تزوج</t>
-  </si>
-  <si>
-    <t>خميس</t>
-  </si>
-  <si>
-    <t>الجمعة</t>
-  </si>
-  <si>
-    <t>جلس</t>
-  </si>
-  <si>
-    <t>الإثنين</t>
+    <t>por</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>SEG</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>QUA</t>
+  </si>
+  <si>
+    <t>QUI</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>SAB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,7 +189,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -232,7 +208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -493,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="1"/>
-    <col min="5" max="6" width="8.42578125" style="1"/>
+    <col min="2" max="2" width="8.44140625" style="1"/>
+    <col min="5" max="6" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,17 +502,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -546,17 +522,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -566,17 +542,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -586,17 +562,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -606,17 +582,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>105</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -626,17 +602,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -646,303 +622,163 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>107</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>105</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>106</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>107</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
